--- a/schedules/Polio.xlsx
+++ b/schedules/Polio.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="77">
   <si>
     <t>Forecast Series Name</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>Did not receive third dose of IPV by 4 years of age, now expecting 4 year old catch-up booster</t>
+  </si>
+  <si>
+    <t>4 years -4 d</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1142,7 @@
         <v>68</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D11" s="9">
         <v>-4</v>
@@ -1794,27 +1797,27 @@
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B103" s="9" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
-      <c r="F103" s="19"/>
+      <c r="F103" s="19" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B104" s="9" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="19"/>
-      <c r="F104" s="19" t="s">
-        <v>75</v>
-      </c>
+      <c r="F104" s="19"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B105" s="17" t="s">
@@ -2511,11 +2514,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A98"/>
+  <dimension ref="A1:A87"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection sqref="A1:A98"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2555,7 +2556,7 @@
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="str">
         <f>"  &lt;transition name="&amp;CHAR(34)&amp;Schedules!B11&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!C11&amp;CHAR(34)&amp;" vaccineId="&amp;CHAR(34)&amp;Schedules!D11&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">  &lt;transition name="4 Years Old" age="4 years" vaccineId="-4"/&gt;</v>
+        <v xml:space="preserve">  &lt;transition name="4 Years Old" age="4 years -4 d" vaccineId="-4"/&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -2632,68 +2633,68 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="str">
-        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B91&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C91&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D91&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E90&amp;CHAR(34)&amp;"&gt;"</f>
-        <v xml:space="preserve">  &lt;schedule scheduleName="P3" dose="3" indication="" label="6-18 months"&gt;</v>
+        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B73&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C73&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D73&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E72&amp;CHAR(34)&amp;"&gt;"</f>
+        <v xml:space="preserve">  &lt;schedule scheduleName="P2" dose="2" indication="" label="4 months"&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="str">
-        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C106&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C105&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;pos row="1" column="3"/&gt;</v>
+        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C88&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C87&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;pos row="1" column="2"/&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="str">
-        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C94&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D94&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E94&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;valid age="14 weeks" interval="4 weeks" grace="4 days"/&gt;</v>
+        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C76&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D76&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E76&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;valid age="10 weeks" interval="4 weeks" grace="4 days"/&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="str">
-        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C95&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D95&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E95&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C77&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D77&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E77&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="str">
-        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C96&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D96&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E96&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;due age="6 months" interval="" grace=""/&gt;</v>
+        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C78&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D78&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E78&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;due age="4 months" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="str">
-        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C97&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D97&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E97&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;overdue age="19 months" interval="" grace=""/&gt;</v>
+        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C79&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D79&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E79&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;overdue age="5 months" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="str">
-        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C98&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D98&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E98&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C80&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D80&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E80&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;finished age="18 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="str">
-        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D99&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E99&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D81&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E81&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;after-invalid interval="4 weeks" grace="4 days"/&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="str">
-        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D100&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D82&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B103&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C103&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D103&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F103&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="Any" schedule="P4" age="" reason=""/&gt;</v>
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B85&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C85&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D85&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E85&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;indicate vaccineName="IPV" schedule="P3" age="" reason=""/&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B104&amp;CHAR(34)&amp;" minInterval="&amp;CHAR(34)&amp;Schedules!E104&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C104&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D104&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F104&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="4 Years Old" minInterval="" schedule="CB" age="" reason="Did not receive third dose of IPV by 4 years of age, now expecting 4 year old catch-up booster"/&gt;</v>
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B86&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C86&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D86&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E86&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;indicate vaccineName="OPV" schedule="R3" age="" reason="Oral vaccine given, switching to OPV schedule"/&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
@@ -2704,68 +2705,68 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="str">
-        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B73&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C73&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D73&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E72&amp;CHAR(34)&amp;"&gt;"</f>
-        <v xml:space="preserve">  &lt;schedule scheduleName="P2" dose="2" indication="" label="4 months"&gt;</v>
+        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B91&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C91&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D91&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E90&amp;CHAR(34)&amp;"&gt;"</f>
+        <v xml:space="preserve">  &lt;schedule scheduleName="P3" dose="3" indication="" label="6-18 months"&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="str">
-        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C88&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C87&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;pos row="1" column="2"/&gt;</v>
+        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C106&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C105&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;pos row="1" column="3"/&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="str">
-        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C76&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D76&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E76&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;valid age="10 weeks" interval="4 weeks" grace="4 days"/&gt;</v>
+        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C94&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D94&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E94&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;valid age="14 weeks" interval="4 weeks" grace="4 days"/&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="str">
-        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C77&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D77&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E77&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C95&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D95&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E95&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="str">
-        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C78&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D78&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E78&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;due age="4 months" interval="" grace=""/&gt;</v>
+        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C96&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D96&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E96&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;due age="6 months" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="str">
-        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C79&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D79&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E79&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;overdue age="5 months" interval="" grace=""/&gt;</v>
+        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C97&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D97&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E97&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;overdue age="19 months" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="str">
-        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C80&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D80&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E80&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C98&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D98&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E98&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;finished age="18 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="str">
-        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D81&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E81&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D99&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E99&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;after-invalid interval="4 weeks" grace="4 days"/&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="str">
-        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D82&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D100&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B85&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C85&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D85&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E85&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="IPV" schedule="P3" age="" reason=""/&gt;</v>
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B103&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C103&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D103&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F103&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;indicate vaccineName="4 Years Old" schedule="CB" age="" reason="Did not receive third dose of IPV by 4 years of age, now expecting 4 year old catch-up booster"/&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B86&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C86&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D86&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E86&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="OPV" schedule="R3" age="" reason="Oral vaccine given, switching to OPV schedule"/&gt;</v>
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B104&amp;CHAR(34)&amp;" minInterval="&amp;CHAR(34)&amp;Schedules!E104&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C104&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D104&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F104&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;indicate vaccineName="Any" minInterval="" schedule="P4" age="" reason=""/&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
@@ -2842,62 +2843,62 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="str">
-        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B143&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C143&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D143&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E142&amp;CHAR(34)&amp;"&gt;"</f>
-        <v xml:space="preserve">  &lt;schedule scheduleName="R3" dose="3" indication="" label="6-18 months OPV"&gt;</v>
+        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B126&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C126&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D126&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E125&amp;CHAR(34)&amp;"&gt;"</f>
+        <v xml:space="preserve">  &lt;schedule scheduleName="R2" dose="2" indication="" label="4 months OPV"&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="str">
-        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C157&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C156&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;pos row="2" column="3"/&gt;</v>
+        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C140&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C139&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;pos row="2" column="2"/&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="str">
-        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C146&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D146&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E146&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;valid age="14 weeks" interval="4 weeks" grace="4 days"/&gt;</v>
+        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C129&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D129&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E129&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;valid age="10 weeks" interval="4 weeks" grace="4 days"/&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="21" t="str">
-        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C147&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D147&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E147&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C130&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D130&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E130&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="str">
-        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C148&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D148&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E148&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;due age="6 months" interval="" grace=""/&gt;</v>
+        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C131&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D131&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E131&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;due age="4 months" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="str">
-        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C149&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D149&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E149&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;overdue age="19 months" interval="" grace=""/&gt;</v>
+        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C132&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D132&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E132&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;overdue age="5 months" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="21" t="str">
-        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C150&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D150&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E150&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C133&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D133&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E133&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;finished age="18 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="str">
-        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D151&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E151&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D134&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E134&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;after-invalid interval="4 weeks" grace="4 days"/&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="21" t="str">
-        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D152&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D135&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B155&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C155&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D155&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E155&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="Any" schedule="P4" age="" reason=""/&gt;</v>
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B138&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C138&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D138&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E138&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;indicate vaccineName="Any" schedule="R3" age="" reason=""/&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
@@ -2908,62 +2909,62 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="str">
-        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B126&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C126&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D126&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E125&amp;CHAR(34)&amp;"&gt;"</f>
-        <v xml:space="preserve">  &lt;schedule scheduleName="R2" dose="2" indication="" label="4 months OPV"&gt;</v>
+        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B143&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C143&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D143&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E142&amp;CHAR(34)&amp;"&gt;"</f>
+        <v xml:space="preserve">  &lt;schedule scheduleName="R3" dose="3" indication="" label="6-18 months OPV"&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="str">
-        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C140&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C139&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;pos row="2" column="2"/&gt;</v>
+        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C157&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C156&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;pos row="2" column="3"/&gt;</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="21" t="str">
-        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C129&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D129&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E129&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;valid age="10 weeks" interval="4 weeks" grace="4 days"/&gt;</v>
+        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C146&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D146&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E146&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;valid age="14 weeks" interval="4 weeks" grace="4 days"/&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="21" t="str">
-        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C130&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D130&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E130&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C147&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D147&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E147&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="21" t="str">
-        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C131&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D131&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E131&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;due age="4 months" interval="" grace=""/&gt;</v>
+        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C148&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D148&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E148&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;due age="6 months" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="21" t="str">
-        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C132&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D132&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E132&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;overdue age="5 months" interval="" grace=""/&gt;</v>
+        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C149&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D149&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E149&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;overdue age="19 months" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="21" t="str">
-        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C133&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D133&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E133&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C150&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D150&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E150&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;finished age="18 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="21" t="str">
-        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D134&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E134&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D151&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E151&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;after-invalid interval="4 weeks" grace="4 days"/&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="21" t="str">
-        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D135&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D152&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B138&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C138&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D138&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E138&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="Any" schedule="R3" age="" reason=""/&gt;</v>
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B155&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C155&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D155&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E155&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;indicate vaccineName="Any" schedule="P4" age="" reason=""/&gt;</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
@@ -2974,62 +2975,62 @@
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="21" t="str">
-        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B143&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C143&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D143&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E142&amp;CHAR(34)&amp;"&gt;"</f>
-        <v xml:space="preserve">  &lt;schedule scheduleName="R3" dose="3" indication="" label="6-18 months OPV"&gt;</v>
+        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B160&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C160&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D160&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E159&amp;CHAR(34)&amp;"&gt;"</f>
+        <v xml:space="preserve">  &lt;schedule scheduleName="CB" dose="B" indication="" label="catch-up booster"&gt;</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="20" t="str">
-        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C157&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C156&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;pos row="2" column="3"/&gt;</v>
+        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C174&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C173&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;pos row="1" column="4"/&gt;</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="21" t="str">
-        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C146&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D146&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E146&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;valid age="14 weeks" interval="4 weeks" grace="4 days"/&gt;</v>
+        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C163&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D163&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E163&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;valid age="4 years" interval="6 months" grace="4 days"/&gt;</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="21" t="str">
-        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C147&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D147&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E147&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C164&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D164&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E164&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="21" t="str">
-        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C148&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D148&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E148&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;due age="6 months" interval="" grace=""/&gt;</v>
+        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C165&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D165&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E165&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;due age="4 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="21" t="str">
-        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C149&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D149&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E149&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;overdue age="19 months" interval="" grace=""/&gt;</v>
+        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C166&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D166&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E166&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;overdue age="4 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="str">
-        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C150&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D150&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E150&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C167&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D167&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E167&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;finished age="18 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="21" t="str">
-        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D151&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E151&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;after-invalid interval="4 weeks" grace="4 days"/&gt;</v>
+        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D168&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E168&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;after-invalid interval="6 months" grace="4 days"/&gt;</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="str">
-        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D152&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D169&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B155&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C155&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D155&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E155&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="Any" schedule="P4" age="" reason=""/&gt;</v>
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B172&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C172&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D172&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E172&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;indicate vaccineName="Any" schedule="COMPLETE" age="" reason=""/&gt;</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
@@ -3039,73 +3040,7 @@
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="21" t="str">
-        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B160&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C160&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D160&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E159&amp;CHAR(34)&amp;"&gt;"</f>
-        <v xml:space="preserve">  &lt;schedule scheduleName="CB" dose="B" indication="" label="catch-up booster"&gt;</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="20" t="str">
-        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C174&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C173&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;pos row="1" column="4"/&gt;</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="21" t="str">
-        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C163&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D163&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E163&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;valid age="4 years" interval="6 months" grace="4 days"/&gt;</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="21" t="str">
-        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C164&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D164&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E164&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="21" t="str">
-        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C165&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D165&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E165&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;due age="4 years" interval="" grace=""/&gt;</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="21" t="str">
-        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C166&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D166&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E166&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;overdue age="4 years" interval="" grace=""/&gt;</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="21" t="str">
-        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C167&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D167&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E167&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;finished age="18 years" interval="" grace=""/&gt;</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="21" t="str">
-        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D168&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E168&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;after-invalid interval="6 months" grace="4 days"/&gt;</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="21" t="str">
-        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D169&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B172&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C172&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D172&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E172&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="Any" schedule="COMPLETE" age="" reason=""/&gt;</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="21" t="str">
-        <f>"  &lt;/schedule&gt;"</f>
-        <v xml:space="preserve">  &lt;/schedule&gt;</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="20" t="str">
+      <c r="A87" s="20" t="str">
         <f>"&lt;/forecast&gt;"</f>
         <v>&lt;/forecast&gt;</v>
       </c>

--- a/schedules/Polio.xlsx
+++ b/schedules/Polio.xlsx
@@ -16,14 +16,14 @@
     <sheet name="XML" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Schedules!$A$1:$K$175</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Schedules!$A$1:$K$176</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="77">
   <si>
     <t>Forecast Series Name</t>
   </si>
@@ -954,9 +954,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J174"/>
+  <dimension ref="A1:J175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1628,768 +1630,770 @@
       <c r="C85" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D85" s="9"/>
+      <c r="D85" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="E85" s="19"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D86" s="9"/>
+      <c r="E86" s="19"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B87" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C87" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D86" s="9"/>
-      <c r="E86" s="19" t="s">
+      <c r="D87" s="9"/>
+      <c r="E87" s="19" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B87" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C87" s="9">
-        <v>2</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C88" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B89" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C88" s="9">
+      <c r="C89" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B90" s="5" t="s">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B91" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C91" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14" t="s">
+      <c r="D91" s="14"/>
+      <c r="E91" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B91" s="15" t="s">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B92" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C91" s="15">
+      <c r="C92" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B92" s="23" t="s">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B93" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="23"/>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B93" s="16"/>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B94" s="16"/>
+      <c r="C94" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D94" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E94" s="6" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B94" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>57</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B97" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B98" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B99" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C99" s="18"/>
-      <c r="D99" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B100" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C100" s="18"/>
+      <c r="D100" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B101" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C100" s="18"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B101" s="23" t="s">
+      <c r="C101" s="18"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B102" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C101" s="23"/>
-      <c r="D101" s="23"/>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B102" s="6" t="s">
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B103" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C103" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D103" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E102" s="6" t="s">
+      <c r="E103" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F102" s="6" t="s">
+      <c r="F103" s="6" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B103" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="19" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B104" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B105" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C104" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D104" s="9"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="19"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B105" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C105" s="9">
-        <v>3</v>
-      </c>
+      <c r="C105" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D105" s="9"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="19"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B106" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C106" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B107" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C106" s="9">
+      <c r="C107" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B108" s="5" t="s">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B109" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C109" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14" t="s">
+      <c r="D109" s="14"/>
+      <c r="E109" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B109" s="15" t="s">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B110" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C109" s="15" t="s">
+      <c r="C110" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B110" s="23" t="s">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B111" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23"/>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B111" s="16"/>
-      <c r="C111" s="6" t="s">
+      <c r="C111" s="23"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="23"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B112" s="16"/>
+      <c r="C112" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="D112" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="E112" s="6" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B112" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B113" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B114" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>56</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C114" s="9"/>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B115" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B116" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B117" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C117" s="18"/>
-      <c r="D117" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B118" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C118" s="18"/>
+      <c r="D118" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B119" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C118" s="18"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B119" s="23" t="s">
+      <c r="C119" s="18"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B120" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C119" s="23"/>
-      <c r="D119" s="23"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B120" s="6" t="s">
+      <c r="C120" s="23"/>
+      <c r="D120" s="23"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B121" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="C121" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="D121" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="E121" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B121" s="9" t="s">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B122" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="C122" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D121" s="9"/>
-      <c r="E121" s="19"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B122" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C122" s="9">
-        <v>4</v>
-      </c>
+      <c r="D122" s="9"/>
+      <c r="E122" s="19"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B123" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C123" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B124" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C123" s="9">
+      <c r="C124" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B125" s="5" t="s">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B126" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="C126" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14" t="s">
+      <c r="D126" s="14"/>
+      <c r="E126" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B126" s="15" t="s">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B127" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C126" s="15">
+      <c r="C127" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="14"/>
-      <c r="B127" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C127" s="23"/>
-      <c r="D127" s="23"/>
-      <c r="E127" s="23"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="14"/>
-      <c r="B128" s="16"/>
-      <c r="C128" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B128" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C128" s="23"/>
+      <c r="D128" s="23"/>
+      <c r="E128" s="23"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="14"/>
-      <c r="B129" s="17" t="s">
+      <c r="B129" s="16"/>
+      <c r="C129" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="14"/>
+      <c r="B130" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C129" s="9" t="s">
+      <c r="C130" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D129" s="9" t="s">
+      <c r="D130" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E129" s="9" t="s">
+      <c r="E130" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B130" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B131" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>22</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C131" s="9"/>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B132" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B133" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B134" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C134" s="18"/>
-      <c r="D134" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B135" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C135" s="18"/>
+      <c r="D135" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B136" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C135" s="18"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B136" s="23" t="s">
+      <c r="C136" s="18"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B137" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C136" s="23"/>
-      <c r="D136" s="23"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B137" s="6" t="s">
+      <c r="C137" s="23"/>
+      <c r="D137" s="23"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B138" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C137" s="6" t="s">
+      <c r="C138" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D137" s="6" t="s">
+      <c r="D138" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E137" s="6" t="s">
+      <c r="E138" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B138" s="9" t="s">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B139" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C138" s="9" t="s">
+      <c r="C139" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D138" s="9"/>
-      <c r="E138" s="19"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B139" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C139" s="9">
-        <v>2</v>
-      </c>
+      <c r="D139" s="9"/>
+      <c r="E139" s="19"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B140" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C140" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B142" s="5" t="s">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B141" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C141" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B143" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="C143" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14" t="s">
+      <c r="D143" s="14"/>
+      <c r="E143" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B143" s="15" t="s">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B144" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C143" s="15">
+      <c r="C144" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B144" s="23" t="s">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B145" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C144" s="23"/>
-      <c r="D144" s="23"/>
-      <c r="E144" s="23"/>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B145" s="16"/>
-      <c r="C145" s="6" t="s">
+      <c r="C145" s="23"/>
+      <c r="D145" s="23"/>
+      <c r="E145" s="23"/>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B146" s="16"/>
+      <c r="C146" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D145" s="6" t="s">
+      <c r="D146" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E145" s="6" t="s">
+      <c r="E146" s="6" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B146" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D146" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E146" s="9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B147" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C147" s="9"/>
-      <c r="D147" s="9"/>
-      <c r="E147" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B148" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C148" s="9" t="s">
-        <v>57</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C148" s="9"/>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B149" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B150" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B151" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C151" s="18"/>
-      <c r="D151" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E151" s="9" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B152" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C152" s="18"/>
+      <c r="D152" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E152" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B153" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C152" s="18"/>
-      <c r="D152" s="9"/>
-      <c r="E152" s="9"/>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B153" s="23" t="s">
+      <c r="C153" s="18"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B154" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C153" s="23"/>
-      <c r="D153" s="23"/>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B154" s="6" t="s">
+      <c r="C154" s="23"/>
+      <c r="D154" s="23"/>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B155" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C154" s="6" t="s">
+      <c r="C155" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D154" s="6" t="s">
+      <c r="D155" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E154" s="6" t="s">
+      <c r="E155" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B155" s="9" t="s">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B156" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C155" s="9" t="s">
+      <c r="C156" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D155" s="9"/>
-      <c r="E155" s="19"/>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B156" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C156" s="9">
-        <v>3</v>
-      </c>
+      <c r="D156" s="9"/>
+      <c r="E156" s="19"/>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B157" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C157" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B158" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C157" s="9">
+      <c r="C158" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B159" s="22" t="s">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B160" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C159" s="22" t="s">
+      <c r="C160" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D159" s="14"/>
-      <c r="E159" s="14" t="s">
+      <c r="D160" s="14"/>
+      <c r="E160" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B160" s="15" t="s">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B161" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C160" s="15" t="s">
+      <c r="C161" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B161" s="23" t="s">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B162" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C161" s="23"/>
-      <c r="D161" s="23"/>
-      <c r="E161" s="23"/>
-    </row>
-    <row r="162" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B162" s="16"/>
-      <c r="C162" s="6" t="s">
+      <c r="C162" s="23"/>
+      <c r="D162" s="23"/>
+      <c r="E162" s="23"/>
+    </row>
+    <row r="163" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B163" s="16"/>
+      <c r="C163" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D162" s="6" t="s">
+      <c r="D163" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E162" s="6" t="s">
+      <c r="E163" s="6" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B163" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C163" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D163" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E163" s="9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B164" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C164" s="9"/>
-      <c r="D164" s="9"/>
-      <c r="E164" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E164" s="9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B165" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C165" s="9" t="s">
-        <v>56</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C165" s="9"/>
       <c r="D165" s="9"/>
       <c r="E165" s="9"/>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B166" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C166" s="9" t="s">
         <v>56</v>
@@ -2399,100 +2403,110 @@
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B167" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D167" s="9"/>
       <c r="E167" s="9"/>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B168" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C168" s="18"/>
-      <c r="D168" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E168" s="9" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D168" s="9"/>
+      <c r="E168" s="9"/>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B169" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C169" s="18"/>
+      <c r="D169" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E169" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B170" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C169" s="18"/>
-      <c r="D169" s="9"/>
-      <c r="E169" s="9"/>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B170" s="23" t="s">
+      <c r="C170" s="18"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="9"/>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B171" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C170" s="23"/>
-      <c r="D170" s="23"/>
-    </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B171" s="6" t="s">
+      <c r="C171" s="23"/>
+      <c r="D171" s="23"/>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B172" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C171" s="6" t="s">
+      <c r="C172" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D171" s="6" t="s">
+      <c r="D172" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E171" s="6" t="s">
+      <c r="E172" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B172" s="9" t="s">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B173" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C172" s="9" t="s">
+      <c r="C173" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D172" s="9"/>
-      <c r="E172" s="19"/>
-    </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B173" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C173" s="9">
-        <v>4</v>
-      </c>
+      <c r="D173" s="9"/>
+      <c r="E173" s="19"/>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B174" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C174" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B175" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C174" s="9">
+      <c r="C175" s="9">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="B161:E161"/>
-    <mergeCell ref="B170:D170"/>
+    <mergeCell ref="B162:E162"/>
+    <mergeCell ref="B171:D171"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="B56:E56"/>
     <mergeCell ref="B74:E74"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B93:E93"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B127:E127"/>
-    <mergeCell ref="B144:E144"/>
-    <mergeCell ref="B110:E110"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="B145:E145"/>
+    <mergeCell ref="B111:E111"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2504,9 +2518,9 @@
   <rowBreaks count="5" manualBreakCount="5">
     <brk id="12" max="10" man="1"/>
     <brk id="52" max="16383" man="1"/>
-    <brk id="89" max="10" man="1"/>
-    <brk id="124" max="10" man="1"/>
-    <brk id="158" max="10" man="1"/>
+    <brk id="90" max="10" man="1"/>
+    <brk id="125" max="10" man="1"/>
+    <brk id="159" max="10" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -2514,9 +2528,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A87"/>
+  <dimension ref="A1:A88"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection sqref="A1:A88"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2639,7 +2655,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="str">
-        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C88&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C87&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C89&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C88&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="1" column="2"/&gt;</v>
       </c>
     </row>
@@ -2688,359 +2704,365 @@
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B85&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C85&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D85&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E85&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="IPV" schedule="P3" age="" reason=""/&gt;</v>
+        <v xml:space="preserve">    &lt;indicate vaccineName="IPV" schedule="P3" age="4 years" reason=""/&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B86&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C86&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D86&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E86&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="OPV" schedule="R3" age="" reason="Oral vaccine given, switching to OPV schedule"/&gt;</v>
+        <v xml:space="preserve">    &lt;indicate vaccineName="IPV" schedule="CB" age="" reason=""/&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="str">
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B87&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C87&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D87&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E87&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;indicate vaccineName="OPV" schedule="R3" age="" reason="Oral vaccine given, switching to OPV schedule"/&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="str">
-        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B91&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C91&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D91&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E90&amp;CHAR(34)&amp;"&gt;"</f>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="21" t="str">
+        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B92&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C92&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D92&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E91&amp;CHAR(34)&amp;"&gt;"</f>
         <v xml:space="preserve">  &lt;schedule scheduleName="P3" dose="3" indication="" label="6-18 months"&gt;</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="20" t="str">
-        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C106&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C105&amp;CHAR(34)&amp;"/&gt;"</f>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="20" t="str">
+        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C107&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C106&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="1" column="3"/&gt;</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="str">
-        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C94&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D94&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E94&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;valid age="14 weeks" interval="4 weeks" grace="4 days"/&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="str">
-        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C95&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D95&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E95&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
+        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C95&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D95&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E95&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;valid age="14 weeks" interval="4 weeks" grace="4 days"/&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="str">
-        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C96&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D96&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E96&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;due age="6 months" interval="" grace=""/&gt;</v>
+        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C96&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D96&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E96&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="str">
-        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C97&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D97&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E97&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;overdue age="19 months" interval="" grace=""/&gt;</v>
+        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C97&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D97&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E97&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;due age="6 months" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="str">
-        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C98&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D98&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E98&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;finished age="18 years" interval="" grace=""/&gt;</v>
+        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C98&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D98&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E98&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;overdue age="19 months" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="str">
-        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D99&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E99&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;after-invalid interval="4 weeks" grace="4 days"/&gt;</v>
+        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C99&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D99&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E99&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;finished age="18 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="str">
-        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D100&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
+        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D100&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E100&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;after-invalid interval="4 weeks" grace="4 days"/&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B103&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C103&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D103&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F103&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="4 Years Old" schedule="CB" age="" reason="Did not receive third dose of IPV by 4 years of age, now expecting 4 year old catch-up booster"/&gt;</v>
+        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D101&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B104&amp;CHAR(34)&amp;" minInterval="&amp;CHAR(34)&amp;Schedules!E104&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C104&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D104&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F104&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="Any" minInterval="" schedule="P4" age="" reason=""/&gt;</v>
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B104&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C104&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D104&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F104&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;indicate vaccineName="4 Years Old" schedule="CB" age="" reason="Did not receive third dose of IPV by 4 years of age, now expecting 4 year old catch-up booster"/&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="str">
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B105&amp;CHAR(34)&amp;" minInterval="&amp;CHAR(34)&amp;Schedules!E105&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C105&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D105&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F105&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;indicate vaccineName="Any" minInterval="" schedule="CB" age="" reason=""/&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="21" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="21" t="str">
-        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B109&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C109&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D109&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E108&amp;CHAR(34)&amp;"&gt;"</f>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="str">
+        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B110&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C110&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D110&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E109&amp;CHAR(34)&amp;"&gt;"</f>
         <v xml:space="preserve">  &lt;schedule scheduleName="P4" dose="B" indication="" label="4-6 years"&gt;</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="20" t="str">
-        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C123&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C122&amp;CHAR(34)&amp;"/&gt;"</f>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="20" t="str">
+        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C124&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C123&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="1" column="4"/&gt;</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="21" t="str">
-        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C112&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D112&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E112&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;valid age="4 years" interval="6 months" grace="4 days"/&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="str">
-        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C113&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D113&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E113&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
+        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C113&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D113&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E113&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;valid age="4 years" interval="6 months" grace="4 days"/&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="str">
-        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C114&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D114&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E114&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;due age="4 years" interval="" grace=""/&gt;</v>
+        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C114&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D114&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E114&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="str">
-        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C115&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D115&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E115&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;overdue age="7 years" interval="" grace=""/&gt;</v>
+        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C115&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D115&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E115&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;due age="4 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="str">
-        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C116&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D116&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E116&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;finished age="18 years" interval="" grace=""/&gt;</v>
+        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C116&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D116&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E116&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;overdue age="7 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="str">
-        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D117&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E117&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;after-invalid interval="6 months" grace="4 days"/&gt;</v>
+        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C117&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D117&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E117&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;finished age="18 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="str">
-        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D118&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
+        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D118&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E118&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;after-invalid interval="6 months" grace="4 days"/&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B121&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C121&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D121&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E121&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="Any" schedule="COMPLETE" age="" reason=""/&gt;</v>
+        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D119&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="str">
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B122&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C122&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D122&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E122&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;indicate vaccineName="Any" schedule="COMPLETE" age="" reason=""/&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="21" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="21" t="str">
-        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B126&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C126&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D126&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E125&amp;CHAR(34)&amp;"&gt;"</f>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="21" t="str">
+        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B127&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C127&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D127&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E126&amp;CHAR(34)&amp;"&gt;"</f>
         <v xml:space="preserve">  &lt;schedule scheduleName="R2" dose="2" indication="" label="4 months OPV"&gt;</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="20" t="str">
-        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C140&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C139&amp;CHAR(34)&amp;"/&gt;"</f>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="20" t="str">
+        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C141&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C140&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="2" column="2"/&gt;</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="21" t="str">
-        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C129&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D129&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E129&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;valid age="10 weeks" interval="4 weeks" grace="4 days"/&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="21" t="str">
-        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C130&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D130&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E130&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
+        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C130&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D130&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E130&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;valid age="10 weeks" interval="4 weeks" grace="4 days"/&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="str">
-        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C131&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D131&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E131&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;due age="4 months" interval="" grace=""/&gt;</v>
+        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C131&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D131&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E131&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="str">
-        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C132&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D132&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E132&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;overdue age="5 months" interval="" grace=""/&gt;</v>
+        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C132&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D132&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E132&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;due age="4 months" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="21" t="str">
-        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C133&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D133&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E133&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;finished age="18 years" interval="" grace=""/&gt;</v>
+        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C133&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D133&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E133&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;overdue age="5 months" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="str">
-        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D134&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E134&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;after-invalid interval="4 weeks" grace="4 days"/&gt;</v>
+        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C134&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D134&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E134&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;finished age="18 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="21" t="str">
-        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D135&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
+        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D135&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E135&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;after-invalid interval="4 weeks" grace="4 days"/&gt;</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B138&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C138&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D138&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E138&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="Any" schedule="R3" age="" reason=""/&gt;</v>
+        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D136&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="str">
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B139&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C139&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D139&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E139&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;indicate vaccineName="Any" schedule="R3" age="" reason=""/&gt;</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="21" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="21" t="str">
-        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B143&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C143&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D143&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E142&amp;CHAR(34)&amp;"&gt;"</f>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="21" t="str">
+        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B144&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C144&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D144&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E143&amp;CHAR(34)&amp;"&gt;"</f>
         <v xml:space="preserve">  &lt;schedule scheduleName="R3" dose="3" indication="" label="6-18 months OPV"&gt;</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="20" t="str">
-        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C157&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C156&amp;CHAR(34)&amp;"/&gt;"</f>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="20" t="str">
+        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C158&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C157&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="2" column="3"/&gt;</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="21" t="str">
-        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C146&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D146&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E146&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;valid age="14 weeks" interval="4 weeks" grace="4 days"/&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="21" t="str">
-        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C147&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D147&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E147&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
+        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C147&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D147&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E147&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;valid age="14 weeks" interval="4 weeks" grace="4 days"/&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="21" t="str">
-        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C148&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D148&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E148&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;due age="6 months" interval="" grace=""/&gt;</v>
+        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C148&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D148&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E148&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="21" t="str">
-        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C149&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D149&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E149&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;overdue age="19 months" interval="" grace=""/&gt;</v>
+        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C149&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D149&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E149&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;due age="6 months" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="21" t="str">
-        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C150&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D150&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E150&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;finished age="18 years" interval="" grace=""/&gt;</v>
+        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C150&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D150&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E150&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;overdue age="19 months" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="21" t="str">
-        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D151&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E151&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;after-invalid interval="4 weeks" grace="4 days"/&gt;</v>
+        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C151&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D151&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E151&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;finished age="18 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="21" t="str">
-        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D152&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
+        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D152&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E152&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;after-invalid interval="4 weeks" grace="4 days"/&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B155&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C155&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D155&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E155&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="Any" schedule="P4" age="" reason=""/&gt;</v>
+        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D153&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="21" t="str">
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B156&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C156&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D156&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E156&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;indicate vaccineName="Any" schedule="P4" age="" reason=""/&gt;</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="21" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="21" t="str">
-        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B160&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C160&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D160&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E159&amp;CHAR(34)&amp;"&gt;"</f>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="21" t="str">
+        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B161&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C161&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D161&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E160&amp;CHAR(34)&amp;"&gt;"</f>
         <v xml:space="preserve">  &lt;schedule scheduleName="CB" dose="B" indication="" label="catch-up booster"&gt;</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="20" t="str">
-        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C174&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C173&amp;CHAR(34)&amp;"/&gt;"</f>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="20" t="str">
+        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C175&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C174&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="1" column="4"/&gt;</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="21" t="str">
-        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C163&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D163&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E163&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;valid age="4 years" interval="6 months" grace="4 days"/&gt;</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="21" t="str">
-        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C164&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D164&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E164&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
+        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C164&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D164&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E164&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;valid age="4 years" interval="6 months" grace="4 days"/&gt;</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="21" t="str">
-        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C165&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D165&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E165&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;due age="4 years" interval="" grace=""/&gt;</v>
+        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C165&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D165&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E165&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="21" t="str">
-        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C166&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D166&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E166&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;overdue age="4 years" interval="" grace=""/&gt;</v>
+        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C166&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D166&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E166&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;due age="4 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="str">
-        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C167&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D167&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E167&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;finished age="18 years" interval="" grace=""/&gt;</v>
+        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C167&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D167&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E167&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;overdue age="4 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="21" t="str">
-        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D168&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E168&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;after-invalid interval="6 months" grace="4 days"/&gt;</v>
+        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C168&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D168&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E168&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;finished age="18 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="str">
-        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D169&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
+        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D169&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E169&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;after-invalid interval="6 months" grace="4 days"/&gt;</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B172&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C172&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D172&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E172&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="Any" schedule="COMPLETE" age="" reason=""/&gt;</v>
+        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D170&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="21" t="str">
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B173&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C173&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D173&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E173&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;indicate vaccineName="Any" schedule="COMPLETE" age="" reason=""/&gt;</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="21" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="20" t="str">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="20" t="str">
         <f>"&lt;/forecast&gt;"</f>
         <v>&lt;/forecast&gt;</v>
       </c>

--- a/schedules/Polio.xlsx
+++ b/schedules/Polio.xlsx
@@ -956,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1827,7 +1827,7 @@
         <v>12</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="19"/>
@@ -2788,7 +2788,7 @@
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B105&amp;CHAR(34)&amp;" minInterval="&amp;CHAR(34)&amp;Schedules!E105&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C105&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D105&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F105&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="Any" minInterval="" schedule="CB" age="" reason=""/&gt;</v>
+        <v xml:space="preserve">    &lt;indicate vaccineName="Any" minInterval="" schedule="P4" age="" reason=""/&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
